--- a/DepthCharges/AirborneDroppedMines.xlsx
+++ b/DepthCharges/AirborneDroppedMines.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\DepthCharges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF91F8A8-5ADD-4F5A-BA51-67EF0A899B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD548C4E-D9D1-4795-88F5-549DD297DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="107" r:id="rId3"/>
-    <pivotCache cacheId="123" r:id="rId4"/>
-    <pivotCache cacheId="135" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="49">
   <si>
     <t/>
   </si>
@@ -185,49 +185,13 @@
     <t>1940</t>
   </si>
   <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>1941</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Jun</t>
   </si>
   <si>
     <t>1942</t>
   </si>
   <si>
     <t>1943</t>
-  </si>
-  <si>
-    <t>1943 Total</t>
   </si>
   <si>
     <t>1944</t>
@@ -356,7 +320,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +342,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -431,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{8BD989EC-016B-418A-B299-43C4C8B1DB91}"/>
@@ -445,9 +415,292 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0A2FE024-92FE-43A0-9713-6851D4004EF1}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="50">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -529,16 +782,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="Biegert Standard" table="0" count="4" xr9:uid="{7C354013-5777-434E-AE4C-CFEE7785F191}">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="totalRow" dxfId="7"/>
-      <tableStyleElement type="firstColumn" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="firstColumn" dxfId="47"/>
+      <tableStyleElement type="firstRowStripe" dxfId="46"/>
     </tableStyle>
     <tableStyle name="Biegert Standard A" pivot="0" count="4" xr9:uid="{0F62376E-C7C2-4D0A-80AF-3486931EC7A3}">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="totalRow" dxfId="3"/>
-      <tableStyleElement type="firstColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="totalRow" dxfId="44"/>
+      <tableStyleElement type="firstColumn" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
     </tableStyle>
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D5A5F521-9AF8-494D-A293-CE4730E89140}"/>
   </tableStyles>
@@ -597,6 +850,100 @@
         <a:xfrm>
           <a:off x="8694950" y="0"/>
           <a:ext cx="4901680" cy="6284976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>41026</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1008441</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Table&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5C4105-D9BC-B611-B8B8-197B1F5933F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8675575" y="0"/>
+          <a:ext cx="4899335" cy="6316125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>513616</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>117507</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Table&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150A2693-83E1-619E-4317-6CFCBA0EA6E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14978364" y="0"/>
+          <a:ext cx="9801439" cy="11672360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,11 +1207,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Mark Biegert" refreshedDate="45055.778460185182" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3FDF22C7-999A-45B7-8CFF-0E49E0F203DB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Mark Biegert" refreshedDate="45055.945910648152" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3FDF22C7-999A-45B7-8CFF-0E49E0F203DB}">
   <cacheSource type="external" connectionId="4"/>
   <cacheFields count="4">
     <cacheField name="[Combined].[Date (Month)].[Date (Month)]" caption="Date (Month)" numFmtId="0" hierarchy="13" level="1">
-      <sharedItems count="12">
+      <sharedItems containsNonDate="0" count="12">
         <s v="Jan"/>
         <s v="Feb"/>
         <s v="Mar"/>
@@ -3214,180 +3561,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1D70F20-72AF-44B2-9D42-31DAC2A09F92}" name="PivotTable3" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L33:Q53" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1">
-      <items count="7">
-        <item x="0" e="0"/>
-        <item x="1" e="0"/>
-        <item x="2" e="0"/>
-        <item x="3"/>
-        <item x="4" e="0"/>
-        <item x="5" e="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Value" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="21">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="11"/>
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="8"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Combined]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03D75A69-9385-4459-86C0-8514CBC7C464}" name="PivotTable1" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03D75A69-9385-4459-86C0-8514CBC7C464}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="T44:AA53" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1">
@@ -3523,8 +3697,369 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1D70F20-72AF-44B2-9D42-31DAC2A09F92}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="S62:X70" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1">
+      <items count="7">
+        <item x="0" e="0"/>
+        <item x="1" e="0"/>
+        <item x="2" e="0"/>
+        <item x="3" e="0"/>
+        <item x="4" e="0"/>
+        <item x="5" e="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="3" baseField="1" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="21">
+    <format dxfId="41">
+      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2" selected="0">
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="4" selected="0">
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2" selected="0">
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="21">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="11"/>
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="8"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Combined]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD6E8CFA-8D2D-4D79-BEAF-267C21F2A4AB}" name="PivotTable4" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD6E8CFA-8D2D-4D79-BEAF-267C21F2A4AB}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F1:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0">
@@ -3726,7 +4261,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394EF55B-5601-416F-89B0-8FC05269FBDE}" name="Table4" displayName="Table4" ref="A1:D373" totalsRowShown="0">
   <autoFilter ref="A1:D373" xr:uid="{394EF55B-5601-416F-89B0-8FC05269FBDE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E8AD9C6E-7FFA-4802-BD20-C77E40991A77}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E8AD9C6E-7FFA-4802-BD20-C77E40991A77}" name="Date" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{E64A40D9-8354-4A2B-AAE9-B4FAC7A5A3F8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{CB38B31A-A814-4CB4-B2D9-360A348E8533}" name="Mark"/>
     <tableColumn id="4" xr3:uid="{62CA5B75-415C-4054-BF6A-A5302E7218A9}" name="Value"/>
@@ -4057,10 +4592,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38:Q49"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="9924" ySplit="3960" topLeftCell="R62" activePane="bottomRight"/>
+      <selection activeCell="N34" sqref="N34"/>
+      <selection pane="topRight" activeCell="X52" sqref="X52"/>
+      <selection pane="bottomLeft" activeCell="O64" sqref="O64"/>
+      <selection pane="bottomRight" activeCell="R67" sqref="R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4076,7 +4615,10 @@
     <col min="17" max="17" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -5134,12 +5676,6 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -5172,24 +5708,6 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" t="s">
-        <v>48</v>
-      </c>
-      <c r="O34" t="s">
-        <v>51</v>
-      </c>
-      <c r="P34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -5222,21 +5740,6 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="L35" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -5269,21 +5772,6 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="L36" t="s">
-        <v>34</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>925</v>
-      </c>
-      <c r="P36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>1925</v>
-      </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -5316,21 +5804,6 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="L37" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" s="3">
-        <v>6116</v>
-      </c>
-      <c r="O37" s="3">
-        <v>1250</v>
-      </c>
-      <c r="P37" s="3">
-        <v>32089</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>39455</v>
-      </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -5363,24 +5836,6 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="L38" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" t="s">
-        <v>35</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>10335</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>10335</v>
-      </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -5413,21 +5868,6 @@
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <v>4149</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>4149</v>
-      </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -5460,21 +5900,6 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1510</v>
-      </c>
-      <c r="O40" s="3">
-        <v>10</v>
-      </c>
-      <c r="P40" s="3">
-        <v>5542</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>7062</v>
-      </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -5507,21 +5932,6 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>38</v>
-      </c>
-      <c r="N41" s="3">
-        <v>685</v>
-      </c>
-      <c r="O41" s="3">
-        <v>85</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>3270</v>
-      </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -5554,21 +5964,6 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>6</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1538</v>
-      </c>
-      <c r="O42" s="3">
-        <v>122</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>3660</v>
-      </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -5601,21 +5996,6 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>39</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1369</v>
-      </c>
-      <c r="O43" s="3">
-        <v>85</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2150</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>3604</v>
-      </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -5648,29 +6028,14 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>28</v>
-      </c>
-      <c r="N44" s="3">
-        <v>983</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="T44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P44" s="3">
-        <v>1956</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2974</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="V44" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
@@ -5704,26 +6069,11 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1014</v>
-      </c>
-      <c r="O45" s="3">
-        <v>203</v>
-      </c>
-      <c r="P45" s="3">
-        <v>305</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1522</v>
-      </c>
       <c r="U45" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Z45" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AA45" t="s">
         <v>24</v>
@@ -5760,21 +6110,6 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="3">
-        <v>85</v>
-      </c>
-      <c r="O46" s="3">
-        <v>296</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1025</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1406</v>
-      </c>
       <c r="T46" s="1" t="s">
         <v>25</v>
       </c>
@@ -5825,43 +6160,28 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="3">
-        <v>773</v>
-      </c>
-      <c r="O47" s="3">
-        <v>377</v>
-      </c>
-      <c r="P47" s="3">
-        <v>452</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1602</v>
-      </c>
       <c r="T47" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
         <v>0</v>
       </c>
     </row>
@@ -5896,43 +6216,28 @@
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1535</v>
-      </c>
-      <c r="O48" s="3">
-        <v>364</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1154</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>3053</v>
-      </c>
       <c r="T48" t="s">
-        <v>34</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3">
+        <v>28</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
         <v>0</v>
       </c>
     </row>
@@ -5967,43 +6272,28 @@
       <c r="J49">
         <v>410</v>
       </c>
-      <c r="M49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1320</v>
-      </c>
-      <c r="O49" s="3">
-        <v>240</v>
-      </c>
-      <c r="P49" s="3">
-        <v>857</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2417</v>
-      </c>
       <c r="T49" t="s">
-        <v>40</v>
-      </c>
-      <c r="U49" s="3">
+        <v>29</v>
+      </c>
+      <c r="U49">
         <v>1075</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49">
         <v>5041</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
         <v>6116</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49">
         <v>6116</v>
       </c>
     </row>
@@ -6038,43 +6328,28 @@
       <c r="J50">
         <v>660</v>
       </c>
-      <c r="L50" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="3">
+      <c r="T50" t="s">
+        <v>30</v>
+      </c>
+      <c r="U50">
+        <v>1133</v>
+      </c>
+      <c r="V50">
+        <v>6359</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>3320</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
         <v>10812</v>
       </c>
-      <c r="O50" s="3">
-        <v>1817</v>
-      </c>
-      <c r="P50" s="3">
-        <v>32425</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>45054</v>
-      </c>
-      <c r="T50" t="s">
-        <v>41</v>
-      </c>
-      <c r="U50" s="3">
-        <v>1133</v>
-      </c>
-      <c r="V50" s="3">
-        <v>6359</v>
-      </c>
-      <c r="W50" s="3">
-        <v>0</v>
-      </c>
-      <c r="X50" s="3">
-        <v>3320</v>
-      </c>
-      <c r="Y50" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="3">
-        <v>10812</v>
-      </c>
-      <c r="AA50" s="3">
+      <c r="AA50">
         <v>10812</v>
       </c>
     </row>
@@ -6109,43 +6384,28 @@
       <c r="J51">
         <v>688</v>
       </c>
-      <c r="L51" t="s">
-        <v>43</v>
-      </c>
-      <c r="N51" s="3">
+      <c r="T51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51">
+        <v>1792</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>8900</v>
+      </c>
+      <c r="X51">
+        <v>2680</v>
+      </c>
+      <c r="Y51">
+        <v>5020</v>
+      </c>
+      <c r="Z51">
         <v>18392</v>
       </c>
-      <c r="O51" s="3">
-        <v>2008</v>
-      </c>
-      <c r="P51" s="3">
-        <v>4116</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>24516</v>
-      </c>
-      <c r="T51" t="s">
-        <v>43</v>
-      </c>
-      <c r="U51" s="3">
-        <v>1792</v>
-      </c>
-      <c r="V51" s="3">
-        <v>0</v>
-      </c>
-      <c r="W51" s="3">
-        <v>8900</v>
-      </c>
-      <c r="X51" s="3">
-        <v>2680</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>5020</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>18392</v>
-      </c>
-      <c r="AA51" s="3">
+      <c r="AA51">
         <v>18392</v>
       </c>
     </row>
@@ -6180,43 +6440,28 @@
       <c r="J52">
         <v>1387</v>
       </c>
-      <c r="L52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="T52" t="s">
+        <v>32</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>3200</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>4514</v>
+      </c>
+      <c r="Z52">
         <v>7714</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>7714</v>
-      </c>
-      <c r="T52" t="s">
-        <v>44</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3">
-        <v>3200</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>4514</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>7714</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52">
         <v>7714</v>
       </c>
     </row>
@@ -6251,43 +6496,28 @@
       <c r="J53">
         <v>625</v>
       </c>
-      <c r="L53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="3">
-        <v>43034</v>
-      </c>
-      <c r="O53" s="3">
-        <v>6000</v>
-      </c>
-      <c r="P53" s="3">
-        <v>69630</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>118664</v>
-      </c>
       <c r="T53" t="s">
         <v>24</v>
       </c>
-      <c r="U53" s="3">
+      <c r="U53">
         <v>4000</v>
       </c>
-      <c r="V53" s="3">
+      <c r="V53">
         <v>11400</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53">
         <v>12100</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53">
         <v>6000</v>
       </c>
-      <c r="Y53" s="3">
+      <c r="Y53">
         <v>9534</v>
       </c>
-      <c r="Z53" s="3">
+      <c r="Z53">
         <v>43034</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AA53">
         <v>43034</v>
       </c>
     </row>
@@ -6578,6 +6808,12 @@
       <c r="J62">
         <v>1085</v>
       </c>
+      <c r="S62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -6609,6 +6845,143 @@
       </c>
       <c r="J63">
         <v>1032</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U63" t="s">
+        <v>36</v>
+      </c>
+      <c r="V63" t="s">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S64" t="s">
+        <v>27</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
+        <v>28</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>925</v>
+      </c>
+      <c r="W65" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X65" s="3">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="66" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S66" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="3">
+        <v>6116</v>
+      </c>
+      <c r="V66" s="3">
+        <v>1250</v>
+      </c>
+      <c r="W66" s="3">
+        <v>32089</v>
+      </c>
+      <c r="X66" s="3">
+        <v>39455</v>
+      </c>
+    </row>
+    <row r="67" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S67" t="s">
+        <v>30</v>
+      </c>
+      <c r="U67" s="3">
+        <v>10812</v>
+      </c>
+      <c r="V67" s="3">
+        <v>1817</v>
+      </c>
+      <c r="W67" s="3">
+        <v>32425</v>
+      </c>
+      <c r="X67" s="3">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="68" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S68" t="s">
+        <v>31</v>
+      </c>
+      <c r="U68" s="3">
+        <v>18392</v>
+      </c>
+      <c r="V68" s="3">
+        <v>2008</v>
+      </c>
+      <c r="W68" s="3">
+        <v>4116</v>
+      </c>
+      <c r="X68" s="3">
+        <v>24516</v>
+      </c>
+    </row>
+    <row r="69" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S69" t="s">
+        <v>32</v>
+      </c>
+      <c r="U69" s="3">
+        <v>7714</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>7714</v>
+      </c>
+    </row>
+    <row r="70" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S70" t="s">
+        <v>24</v>
+      </c>
+      <c r="U70" s="3">
+        <v>43034</v>
+      </c>
+      <c r="V70" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W70" s="3">
+        <v>69630</v>
+      </c>
+      <c r="X70" s="3">
+        <v>118664</v>
       </c>
     </row>
   </sheetData>
@@ -6626,8 +6999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EC333A-2B6F-41AB-A81D-84B019F3BF3C}">
   <dimension ref="A1:J373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6646,19 +7019,19 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6666,25 +7039,25 @@
         <v>14793</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -6695,10 +7068,10 @@
         <v>14793</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6706,13 +7079,13 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
@@ -6721,24 +7094,24 @@
         <v>14793</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3">
+        <v>28</v>
+      </c>
+      <c r="H4">
         <v>925</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>1000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>1925</v>
       </c>
     </row>
@@ -6747,24 +7120,24 @@
         <v>14793</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3">
+        <v>29</v>
+      </c>
+      <c r="H5">
         <v>1250</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>32089</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>33339</v>
       </c>
     </row>
@@ -6773,24 +7146,24 @@
         <v>14824</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="3">
+        <v>30</v>
+      </c>
+      <c r="H6">
         <v>1817</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>32425</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>34242</v>
       </c>
     </row>
@@ -6799,24 +7172,24 @@
         <v>14824</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="3">
+        <v>31</v>
+      </c>
+      <c r="H7">
         <v>2008</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>4116</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>6124</v>
       </c>
     </row>
@@ -6825,24 +7198,24 @@
         <v>14824</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>
@@ -6851,10 +7224,10 @@
         <v>14824</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -6862,13 +7235,13 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>6000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>69630</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>75630</v>
       </c>
     </row>
@@ -6877,10 +7250,10 @@
         <v>14855</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -6891,10 +7264,10 @@
         <v>14855</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6905,10 +7278,10 @@
         <v>14855</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6919,10 +7292,10 @@
         <v>14855</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6933,10 +7306,10 @@
         <v>14885</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6947,10 +7320,10 @@
         <v>14885</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -6961,10 +7334,10 @@
         <v>14885</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -6975,10 +7348,10 @@
         <v>14885</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -6989,10 +7362,10 @@
         <v>14916</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -7003,10 +7376,10 @@
         <v>14916</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -7017,10 +7390,10 @@
         <v>14916</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -7031,10 +7404,10 @@
         <v>14916</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -7045,10 +7418,10 @@
         <v>14946</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -7059,10 +7432,10 @@
         <v>14946</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -7073,10 +7446,10 @@
         <v>14946</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -7087,10 +7460,10 @@
         <v>14946</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -7101,10 +7474,10 @@
         <v>14977</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7115,10 +7488,10 @@
         <v>14977</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7129,10 +7502,10 @@
         <v>14977</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -7143,10 +7516,10 @@
         <v>14977</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7157,10 +7530,10 @@
         <v>15008</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7171,10 +7544,10 @@
         <v>15008</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7185,10 +7558,10 @@
         <v>15008</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -7199,10 +7572,10 @@
         <v>15008</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7213,10 +7586,10 @@
         <v>15036</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -7227,10 +7600,10 @@
         <v>15036</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -7241,10 +7614,10 @@
         <v>15036</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -7255,10 +7628,10 @@
         <v>15036</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -7269,10 +7642,10 @@
         <v>15067</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -7283,10 +7656,10 @@
         <v>15067</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -7297,10 +7670,10 @@
         <v>15067</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -7311,10 +7684,10 @@
         <v>15067</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -7325,10 +7698,10 @@
         <v>15097</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -7339,10 +7712,10 @@
         <v>15097</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -7353,10 +7726,10 @@
         <v>15097</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -7367,10 +7740,10 @@
         <v>15097</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7381,10 +7754,10 @@
         <v>15128</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7395,10 +7768,10 @@
         <v>15128</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7409,10 +7782,10 @@
         <v>15128</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7423,10 +7796,10 @@
         <v>15128</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7437,10 +7810,10 @@
         <v>15158</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7451,10 +7824,10 @@
         <v>15158</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7465,10 +7838,10 @@
         <v>15158</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7479,10 +7852,10 @@
         <v>15158</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7493,10 +7866,10 @@
         <v>15189</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7507,10 +7880,10 @@
         <v>15189</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7521,10 +7894,10 @@
         <v>15189</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7535,10 +7908,10 @@
         <v>15189</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7549,10 +7922,10 @@
         <v>15220</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7563,10 +7936,10 @@
         <v>15220</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7577,10 +7950,10 @@
         <v>15220</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -7591,10 +7964,10 @@
         <v>15220</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -7605,10 +7978,10 @@
         <v>15250</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -7619,10 +7992,10 @@
         <v>15250</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -7633,10 +8006,10 @@
         <v>15250</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -7647,10 +8020,10 @@
         <v>15250</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -7661,10 +8034,10 @@
         <v>15281</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -7675,10 +8048,10 @@
         <v>15281</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -7689,10 +8062,10 @@
         <v>15281</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -7703,10 +8076,10 @@
         <v>15281</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -7717,10 +8090,10 @@
         <v>15311</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -7731,10 +8104,10 @@
         <v>15311</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -7745,10 +8118,10 @@
         <v>15311</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -7759,10 +8132,10 @@
         <v>15342</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -7773,10 +8146,10 @@
         <v>15342</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -7787,10 +8160,10 @@
         <v>15342</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -7801,10 +8174,10 @@
         <v>15373</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -7815,10 +8188,10 @@
         <v>15373</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -7829,10 +8202,10 @@
         <v>15373</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -7843,10 +8216,10 @@
         <v>15401</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -7857,10 +8230,10 @@
         <v>15401</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -7871,10 +8244,10 @@
         <v>15401</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -7885,10 +8258,10 @@
         <v>15432</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -7899,10 +8272,10 @@
         <v>15432</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -7913,10 +8286,10 @@
         <v>15432</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -7927,10 +8300,10 @@
         <v>15462</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -7941,10 +8314,10 @@
         <v>15462</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -7955,10 +8328,10 @@
         <v>15462</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -7969,10 +8342,10 @@
         <v>15493</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -7983,10 +8356,10 @@
         <v>15493</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -7997,10 +8370,10 @@
         <v>15493</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -8011,10 +8384,10 @@
         <v>15523</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -8025,10 +8398,10 @@
         <v>15523</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -8039,10 +8412,10 @@
         <v>15523</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -8053,10 +8426,10 @@
         <v>15523</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -8067,10 +8440,10 @@
         <v>15554</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -8081,10 +8454,10 @@
         <v>15554</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -8095,10 +8468,10 @@
         <v>15554</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -8109,10 +8482,10 @@
         <v>15554</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -8123,10 +8496,10 @@
         <v>15585</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -8137,10 +8510,10 @@
         <v>15585</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -8151,10 +8524,10 @@
         <v>15615</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -8165,10 +8538,10 @@
         <v>15615</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -8179,10 +8552,10 @@
         <v>15646</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -8193,10 +8566,10 @@
         <v>15646</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -8207,10 +8580,10 @@
         <v>15646</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -8221,10 +8594,10 @@
         <v>15676</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -8235,10 +8608,10 @@
         <v>15676</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -8249,10 +8622,10 @@
         <v>15676</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -8263,10 +8636,10 @@
         <v>15676</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -8277,10 +8650,10 @@
         <v>15707</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -8291,10 +8664,10 @@
         <v>15707</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -8305,10 +8678,10 @@
         <v>15738</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -8319,10 +8692,10 @@
         <v>15738</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -8333,10 +8706,10 @@
         <v>15766</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -8347,10 +8720,10 @@
         <v>15766</v>
       </c>
       <c r="B115" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -8361,10 +8734,10 @@
         <v>15797</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -8375,10 +8748,10 @@
         <v>15797</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -8389,10 +8762,10 @@
         <v>15797</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -8403,10 +8776,10 @@
         <v>15827</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -8417,10 +8790,10 @@
         <v>15827</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -8431,10 +8804,10 @@
         <v>15827</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -8445,10 +8818,10 @@
         <v>15858</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -8459,10 +8832,10 @@
         <v>15858</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -8473,10 +8846,10 @@
         <v>15888</v>
       </c>
       <c r="B124" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -8487,10 +8860,10 @@
         <v>15919</v>
       </c>
       <c r="B125" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C125" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -8501,10 +8874,10 @@
         <v>15919</v>
       </c>
       <c r="B126" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -8515,10 +8888,10 @@
         <v>15919</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -8529,10 +8902,10 @@
         <v>15950</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -8543,10 +8916,10 @@
         <v>15950</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -8557,10 +8930,10 @@
         <v>15950</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -8571,10 +8944,10 @@
         <v>15980</v>
       </c>
       <c r="B131" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -8585,10 +8958,10 @@
         <v>15980</v>
       </c>
       <c r="B132" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -8599,10 +8972,10 @@
         <v>16011</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -8613,10 +8986,10 @@
         <v>16011</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -8627,10 +9000,10 @@
         <v>16041</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C135" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -8641,10 +9014,10 @@
         <v>16041</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -8655,10 +9028,10 @@
         <v>16041</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -8669,10 +9042,10 @@
         <v>16072</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -8683,10 +9056,10 @@
         <v>16072</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -8697,10 +9070,10 @@
         <v>16072</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C140" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -8711,10 +9084,10 @@
         <v>16103</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C141" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -8725,10 +9098,10 @@
         <v>16103</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C142" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -8739,10 +9112,10 @@
         <v>16103</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -8753,10 +9126,10 @@
         <v>16132</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C144" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -8767,10 +9140,10 @@
         <v>16132</v>
       </c>
       <c r="B145" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C145" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -8781,10 +9154,10 @@
         <v>16132</v>
       </c>
       <c r="B146" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C146" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -8795,10 +9168,10 @@
         <v>16163</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C147" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -8809,10 +9182,10 @@
         <v>16163</v>
       </c>
       <c r="B148" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C148" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -8823,10 +9196,10 @@
         <v>16163</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -8837,10 +9210,10 @@
         <v>16193</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C150" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -8851,10 +9224,10 @@
         <v>16193</v>
       </c>
       <c r="B151" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C151" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -8865,10 +9238,10 @@
         <v>16193</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C152" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -8879,10 +9252,10 @@
         <v>16224</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -8893,10 +9266,10 @@
         <v>16224</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -8907,10 +9280,10 @@
         <v>16224</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C155" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -8921,10 +9294,10 @@
         <v>16254</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C156" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -8935,10 +9308,10 @@
         <v>16254</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C157" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -8949,10 +9322,10 @@
         <v>16254</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C158" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -8963,10 +9336,10 @@
         <v>16285</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -8977,10 +9350,10 @@
         <v>16285</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C160" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -8991,10 +9364,10 @@
         <v>16285</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C161" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -9005,10 +9378,10 @@
         <v>16316</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C162" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -9019,10 +9392,10 @@
         <v>16316</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C163" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -9033,10 +9406,10 @@
         <v>16316</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C164" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -9047,10 +9420,10 @@
         <v>16316</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C165" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -9061,10 +9434,10 @@
         <v>16346</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -9075,10 +9448,10 @@
         <v>16346</v>
       </c>
       <c r="B167" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C167" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -9089,10 +9462,10 @@
         <v>16346</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C168" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -9103,10 +9476,10 @@
         <v>16346</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C169" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -9117,10 +9490,10 @@
         <v>16377</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C170" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -9131,10 +9504,10 @@
         <v>16377</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C171" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -9145,10 +9518,10 @@
         <v>16377</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C172" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -9159,10 +9532,10 @@
         <v>16377</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C173" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -9173,10 +9546,10 @@
         <v>16407</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C174" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -9187,10 +9560,10 @@
         <v>16407</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C175" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -9201,10 +9574,10 @@
         <v>16407</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C176" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -9215,10 +9588,10 @@
         <v>16407</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -9229,10 +9602,10 @@
         <v>16438</v>
       </c>
       <c r="B178" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C178" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -9243,10 +9616,10 @@
         <v>16438</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C179" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -9257,10 +9630,10 @@
         <v>16438</v>
       </c>
       <c r="B180" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C180" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -9271,10 +9644,10 @@
         <v>16438</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C181" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -9285,10 +9658,10 @@
         <v>16469</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C182" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -9299,10 +9672,10 @@
         <v>16469</v>
       </c>
       <c r="B183" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -9313,10 +9686,10 @@
         <v>16469</v>
       </c>
       <c r="B184" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C184" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -9327,10 +9700,10 @@
         <v>16469</v>
       </c>
       <c r="B185" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -9341,10 +9714,10 @@
         <v>16497</v>
       </c>
       <c r="B186" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C186" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -9355,10 +9728,10 @@
         <v>16497</v>
       </c>
       <c r="B187" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C187" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -9369,10 +9742,10 @@
         <v>16497</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -9383,10 +9756,10 @@
         <v>16497</v>
       </c>
       <c r="B189" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C189" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -9397,10 +9770,10 @@
         <v>16528</v>
       </c>
       <c r="B190" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C190" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -9411,10 +9784,10 @@
         <v>16528</v>
       </c>
       <c r="B191" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C191" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -9425,10 +9798,10 @@
         <v>16528</v>
       </c>
       <c r="B192" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C192" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -9439,10 +9812,10 @@
         <v>16528</v>
       </c>
       <c r="B193" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C193" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -9453,10 +9826,10 @@
         <v>16558</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C194" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -9467,10 +9840,10 @@
         <v>16558</v>
       </c>
       <c r="B195" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -9481,10 +9854,10 @@
         <v>16558</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C196" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -9495,10 +9868,10 @@
         <v>16558</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C197" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -9509,10 +9882,10 @@
         <v>16589</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -9523,10 +9896,10 @@
         <v>16589</v>
       </c>
       <c r="B199" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C199" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -9537,10 +9910,10 @@
         <v>16589</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C200" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -9551,10 +9924,10 @@
         <v>16589</v>
       </c>
       <c r="B201" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -9565,10 +9938,10 @@
         <v>16619</v>
       </c>
       <c r="B202" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C202" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -9579,10 +9952,10 @@
         <v>16619</v>
       </c>
       <c r="B203" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -9593,10 +9966,10 @@
         <v>16619</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -9607,10 +9980,10 @@
         <v>16619</v>
       </c>
       <c r="B205" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C205" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -9621,10 +9994,10 @@
         <v>16650</v>
       </c>
       <c r="B206" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -9635,10 +10008,10 @@
         <v>16650</v>
       </c>
       <c r="B207" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C207" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -9649,10 +10022,10 @@
         <v>16650</v>
       </c>
       <c r="B208" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C208" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -9663,10 +10036,10 @@
         <v>16650</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C209" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -9677,10 +10050,10 @@
         <v>14793</v>
       </c>
       <c r="B210" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C210" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -9691,10 +10064,10 @@
         <v>14793</v>
       </c>
       <c r="B211" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C211" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -9705,10 +10078,10 @@
         <v>14824</v>
       </c>
       <c r="B212" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C212" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -9719,10 +10092,10 @@
         <v>14824</v>
       </c>
       <c r="B213" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -9733,10 +10106,10 @@
         <v>14855</v>
       </c>
       <c r="B214" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C214" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -9747,10 +10120,10 @@
         <v>14855</v>
       </c>
       <c r="B215" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C215" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -9761,10 +10134,10 @@
         <v>14885</v>
       </c>
       <c r="B216" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C216" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -9775,10 +10148,10 @@
         <v>14885</v>
       </c>
       <c r="B217" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C217" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9789,10 +10162,10 @@
         <v>14916</v>
       </c>
       <c r="B218" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C218" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -9803,10 +10176,10 @@
         <v>14916</v>
       </c>
       <c r="B219" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C219" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9817,10 +10190,10 @@
         <v>14946</v>
       </c>
       <c r="B220" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C220" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -9831,10 +10204,10 @@
         <v>14946</v>
       </c>
       <c r="B221" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C221" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -9845,10 +10218,10 @@
         <v>14977</v>
       </c>
       <c r="B222" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -9859,10 +10232,10 @@
         <v>15008</v>
       </c>
       <c r="B223" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C223" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -9873,10 +10246,10 @@
         <v>15008</v>
       </c>
       <c r="B224" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C224" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -9887,10 +10260,10 @@
         <v>15036</v>
       </c>
       <c r="B225" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C225" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -9901,10 +10274,10 @@
         <v>15036</v>
       </c>
       <c r="B226" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C226" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -9915,10 +10288,10 @@
         <v>15067</v>
       </c>
       <c r="B227" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C227" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -9929,10 +10302,10 @@
         <v>15067</v>
       </c>
       <c r="B228" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C228" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -9943,10 +10316,10 @@
         <v>15097</v>
       </c>
       <c r="B229" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C229" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -9957,10 +10330,10 @@
         <v>15097</v>
       </c>
       <c r="B230" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C230" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -9971,10 +10344,10 @@
         <v>15128</v>
       </c>
       <c r="B231" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C231" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -9985,10 +10358,10 @@
         <v>15128</v>
       </c>
       <c r="B232" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C232" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -9999,10 +10372,10 @@
         <v>15158</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C233" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -10013,10 +10386,10 @@
         <v>15158</v>
       </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C234" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -10027,10 +10400,10 @@
         <v>15189</v>
       </c>
       <c r="B235" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C235" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -10041,10 +10414,10 @@
         <v>15189</v>
       </c>
       <c r="B236" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C236" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -10055,10 +10428,10 @@
         <v>15220</v>
       </c>
       <c r="B237" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C237" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -10069,10 +10442,10 @@
         <v>15220</v>
       </c>
       <c r="B238" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C238" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -10083,10 +10456,10 @@
         <v>15250</v>
       </c>
       <c r="B239" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C239" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -10097,10 +10470,10 @@
         <v>15250</v>
       </c>
       <c r="B240" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C240" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -10111,10 +10484,10 @@
         <v>15281</v>
       </c>
       <c r="B241" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C241" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -10125,10 +10498,10 @@
         <v>15281</v>
       </c>
       <c r="B242" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C242" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -10139,10 +10512,10 @@
         <v>15311</v>
       </c>
       <c r="B243" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C243" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -10153,10 +10526,10 @@
         <v>15311</v>
       </c>
       <c r="B244" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C244" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -10167,10 +10540,10 @@
         <v>15342</v>
       </c>
       <c r="B245" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C245" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -10181,10 +10554,10 @@
         <v>15342</v>
       </c>
       <c r="B246" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C246" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -10195,10 +10568,10 @@
         <v>15373</v>
       </c>
       <c r="B247" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C247" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -10209,10 +10582,10 @@
         <v>15373</v>
       </c>
       <c r="B248" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C248" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -10223,10 +10596,10 @@
         <v>15401</v>
       </c>
       <c r="B249" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C249" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -10237,10 +10610,10 @@
         <v>15432</v>
       </c>
       <c r="B250" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C250" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -10251,10 +10624,10 @@
         <v>15432</v>
       </c>
       <c r="B251" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C251" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -10265,10 +10638,10 @@
         <v>15462</v>
       </c>
       <c r="B252" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C252" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -10279,10 +10652,10 @@
         <v>15462</v>
       </c>
       <c r="B253" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C253" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -10293,10 +10666,10 @@
         <v>15493</v>
       </c>
       <c r="B254" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C254" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -10307,10 +10680,10 @@
         <v>15493</v>
       </c>
       <c r="B255" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C255" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -10321,10 +10694,10 @@
         <v>15523</v>
       </c>
       <c r="B256" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C256" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -10335,10 +10708,10 @@
         <v>15523</v>
       </c>
       <c r="B257" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C257" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -10349,10 +10722,10 @@
         <v>15554</v>
       </c>
       <c r="B258" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C258" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -10363,10 +10736,10 @@
         <v>15554</v>
       </c>
       <c r="B259" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C259" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -10377,10 +10750,10 @@
         <v>15585</v>
       </c>
       <c r="B260" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C260" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -10391,10 +10764,10 @@
         <v>15585</v>
       </c>
       <c r="B261" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C261" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -10405,10 +10778,10 @@
         <v>15615</v>
       </c>
       <c r="B262" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C262" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -10419,10 +10792,10 @@
         <v>15615</v>
       </c>
       <c r="B263" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C263" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -10433,10 +10806,10 @@
         <v>15646</v>
       </c>
       <c r="B264" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C264" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -10447,10 +10820,10 @@
         <v>15646</v>
       </c>
       <c r="B265" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C265" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -10461,10 +10834,10 @@
         <v>15676</v>
       </c>
       <c r="B266" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C266" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -10475,10 +10848,10 @@
         <v>15676</v>
       </c>
       <c r="B267" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C267" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -10489,10 +10862,10 @@
         <v>15707</v>
       </c>
       <c r="B268" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C268" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -10503,10 +10876,10 @@
         <v>15707</v>
       </c>
       <c r="B269" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C269" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -10517,10 +10890,10 @@
         <v>15738</v>
       </c>
       <c r="B270" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C270" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -10531,10 +10904,10 @@
         <v>15738</v>
       </c>
       <c r="B271" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C271" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -10545,10 +10918,10 @@
         <v>15766</v>
       </c>
       <c r="B272" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C272" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -10559,10 +10932,10 @@
         <v>15797</v>
       </c>
       <c r="B273" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C273" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -10573,10 +10946,10 @@
         <v>15827</v>
       </c>
       <c r="B274" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C274" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -10587,10 +10960,10 @@
         <v>15858</v>
       </c>
       <c r="B275" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C275" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -10601,10 +10974,10 @@
         <v>15888</v>
       </c>
       <c r="B276" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C276" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -10615,10 +10988,10 @@
         <v>15919</v>
       </c>
       <c r="B277" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C277" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -10629,10 +11002,10 @@
         <v>16041</v>
       </c>
       <c r="B278" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C278" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -10643,10 +11016,10 @@
         <v>16072</v>
       </c>
       <c r="B279" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C279" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -10657,10 +11030,10 @@
         <v>16103</v>
       </c>
       <c r="B280" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C280" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -10671,10 +11044,10 @@
         <v>16193</v>
       </c>
       <c r="B281" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C281" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -10685,10 +11058,10 @@
         <v>16224</v>
       </c>
       <c r="B282" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C282" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -10699,10 +11072,10 @@
         <v>16254</v>
       </c>
       <c r="B283" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C283" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -10713,10 +11086,10 @@
         <v>16285</v>
       </c>
       <c r="B284" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C284" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -10727,10 +11100,10 @@
         <v>16316</v>
       </c>
       <c r="B285" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C285" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -10741,10 +11114,10 @@
         <v>16316</v>
       </c>
       <c r="B286" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C286" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -10755,10 +11128,10 @@
         <v>16346</v>
       </c>
       <c r="B287" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C287" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -10769,10 +11142,10 @@
         <v>16346</v>
       </c>
       <c r="B288" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C288" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -10783,10 +11156,10 @@
         <v>16377</v>
       </c>
       <c r="B289" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C289" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -10797,10 +11170,10 @@
         <v>16377</v>
       </c>
       <c r="B290" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C290" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -10811,10 +11184,10 @@
         <v>16407</v>
       </c>
       <c r="B291" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C291" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -10825,10 +11198,10 @@
         <v>16407</v>
       </c>
       <c r="B292" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C292" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10839,10 +11212,10 @@
         <v>16438</v>
       </c>
       <c r="B293" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C293" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -10853,10 +11226,10 @@
         <v>16438</v>
       </c>
       <c r="B294" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C294" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10867,10 +11240,10 @@
         <v>16469</v>
       </c>
       <c r="B295" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C295" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10881,10 +11254,10 @@
         <v>16469</v>
       </c>
       <c r="B296" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C296" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10895,10 +11268,10 @@
         <v>16497</v>
       </c>
       <c r="B297" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C297" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -10909,10 +11282,10 @@
         <v>16497</v>
       </c>
       <c r="B298" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C298" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10923,10 +11296,10 @@
         <v>16528</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C299" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -10937,10 +11310,10 @@
         <v>16528</v>
       </c>
       <c r="B300" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C300" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10951,10 +11324,10 @@
         <v>16558</v>
       </c>
       <c r="B301" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C301" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10965,10 +11338,10 @@
         <v>16558</v>
       </c>
       <c r="B302" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C302" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10979,10 +11352,10 @@
         <v>16589</v>
       </c>
       <c r="B303" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C303" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10993,10 +11366,10 @@
         <v>16589</v>
       </c>
       <c r="B304" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C304" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -11007,10 +11380,10 @@
         <v>16619</v>
       </c>
       <c r="B305" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C305" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -11021,10 +11394,10 @@
         <v>16619</v>
       </c>
       <c r="B306" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C306" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -11035,10 +11408,10 @@
         <v>16650</v>
       </c>
       <c r="B307" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C307" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -11049,10 +11422,10 @@
         <v>16650</v>
       </c>
       <c r="B308" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C308" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -11063,10 +11436,10 @@
         <v>14977</v>
       </c>
       <c r="B309" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C309" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D309">
         <v>925</v>
@@ -11077,10 +11450,10 @@
         <v>15311</v>
       </c>
       <c r="B310" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C310" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D310">
         <v>1000</v>
@@ -11091,10 +11464,10 @@
         <v>15342</v>
       </c>
       <c r="B311" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C311" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D311">
         <v>1049</v>
@@ -11105,10 +11478,10 @@
         <v>15373</v>
       </c>
       <c r="B312" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C312" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D312">
         <v>2500</v>
@@ -11119,10 +11492,10 @@
         <v>15401</v>
       </c>
       <c r="B313" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C313" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D313">
         <v>3000</v>
@@ -11133,10 +11506,10 @@
         <v>15401</v>
       </c>
       <c r="B314" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C314" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D314">
         <v>1250</v>
@@ -11147,10 +11520,10 @@
         <v>15432</v>
       </c>
       <c r="B315" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C315" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D315">
         <v>4000</v>
@@ -11161,10 +11534,10 @@
         <v>15462</v>
       </c>
       <c r="B316" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C316" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D316">
         <v>5000</v>
@@ -11175,10 +11548,10 @@
         <v>15493</v>
       </c>
       <c r="B317" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C317" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D317">
         <v>6036</v>
@@ -11189,10 +11562,10 @@
         <v>15585</v>
       </c>
       <c r="B318" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C318" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D318">
         <v>4160</v>
@@ -11203,10 +11576,10 @@
         <v>15585</v>
       </c>
       <c r="B319" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C319" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D319">
         <v>1000</v>
@@ -11217,10 +11590,10 @@
         <v>15615</v>
       </c>
       <c r="B320" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C320" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D320">
         <v>844</v>
@@ -11231,10 +11604,10 @@
         <v>15615</v>
       </c>
       <c r="B321" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C321" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D321">
         <v>2000</v>
@@ -11245,10 +11618,10 @@
         <v>15646</v>
       </c>
       <c r="B322" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C322" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D322">
         <v>2500</v>
@@ -11259,10 +11632,10 @@
         <v>15707</v>
       </c>
       <c r="B323" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C323" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D323">
         <v>7835</v>
@@ -11273,10 +11646,10 @@
         <v>15707</v>
       </c>
       <c r="B324" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C324" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D324">
         <v>2500</v>
@@ -11287,10 +11660,10 @@
         <v>15738</v>
       </c>
       <c r="B325" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C325" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D325">
         <v>1649</v>
@@ -11301,10 +11674,10 @@
         <v>15738</v>
       </c>
       <c r="B326" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C326" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D326">
         <v>2500</v>
@@ -11315,10 +11688,10 @@
         <v>15766</v>
       </c>
       <c r="B327" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C327" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D327">
         <v>3042</v>
@@ -11329,10 +11702,10 @@
         <v>15766</v>
       </c>
       <c r="B328" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C328" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D328">
         <v>2500</v>
@@ -11343,10 +11716,10 @@
         <v>15766</v>
       </c>
       <c r="B329" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C329" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D329">
         <v>10</v>
@@ -11357,10 +11730,10 @@
         <v>15797</v>
       </c>
       <c r="B330" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C330" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D330">
         <v>2500</v>
@@ -11371,10 +11744,10 @@
         <v>15797</v>
       </c>
       <c r="B331" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C331" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D331">
         <v>85</v>
@@ -11385,10 +11758,10 @@
         <v>15827</v>
       </c>
       <c r="B332" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C332" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D332">
         <v>2000</v>
@@ -11399,10 +11772,10 @@
         <v>15827</v>
       </c>
       <c r="B333" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C333" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D333">
         <v>122</v>
@@ -11413,10 +11786,10 @@
         <v>15858</v>
       </c>
       <c r="B334" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C334" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D334">
         <v>2000</v>
@@ -11427,10 +11800,10 @@
         <v>15858</v>
       </c>
       <c r="B335" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C335" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D335">
         <v>150</v>
@@ -11441,10 +11814,10 @@
         <v>15858</v>
       </c>
       <c r="B336" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C336" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D336">
         <v>85</v>
@@ -11455,10 +11828,10 @@
         <v>15888</v>
       </c>
       <c r="B337" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C337" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D337">
         <v>515</v>
@@ -11469,10 +11842,10 @@
         <v>15888</v>
       </c>
       <c r="B338" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C338" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D338">
         <v>1000</v>
@@ -11483,10 +11856,10 @@
         <v>15888</v>
       </c>
       <c r="B339" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C339" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D339">
         <v>441</v>
@@ -11497,10 +11870,10 @@
         <v>15888</v>
       </c>
       <c r="B340" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C340" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D340">
         <v>35</v>
@@ -11511,10 +11884,10 @@
         <v>15919</v>
       </c>
       <c r="B341" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C341" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D341">
         <v>305</v>
@@ -11525,10 +11898,10 @@
         <v>15919</v>
       </c>
       <c r="B342" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C342" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D342">
         <v>203</v>
@@ -11539,10 +11912,10 @@
         <v>15950</v>
       </c>
       <c r="B343" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C343" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D343">
         <v>1025</v>
@@ -11553,10 +11926,10 @@
         <v>15950</v>
       </c>
       <c r="B344" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C344" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D344">
         <v>29</v>
@@ -11567,10 +11940,10 @@
         <v>15950</v>
       </c>
       <c r="B345" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C345" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D345">
         <v>267</v>
@@ -11581,10 +11954,10 @@
         <v>15980</v>
       </c>
       <c r="B346" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C346" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D346">
         <v>173</v>
@@ -11595,10 +11968,10 @@
         <v>15980</v>
       </c>
       <c r="B347" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C347" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D347">
         <v>279</v>
@@ -11609,10 +11982,10 @@
         <v>15980</v>
       </c>
       <c r="B348" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C348" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D348">
         <v>118</v>
@@ -11623,10 +11996,10 @@
         <v>15980</v>
       </c>
       <c r="B349" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C349" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D349">
         <v>259</v>
@@ -11637,10 +12010,10 @@
         <v>16011</v>
       </c>
       <c r="B350" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C350" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D350">
         <v>854</v>
@@ -11651,10 +12024,10 @@
         <v>16011</v>
       </c>
       <c r="B351" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C351" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D351">
         <v>300</v>
@@ -11665,10 +12038,10 @@
         <v>16011</v>
       </c>
       <c r="B352" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C352" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D352">
         <v>206</v>
@@ -11679,10 +12052,10 @@
         <v>16011</v>
       </c>
       <c r="B353" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C353" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D353">
         <v>158</v>
@@ -11693,10 +12066,10 @@
         <v>16041</v>
       </c>
       <c r="B354" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C354" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D354">
         <v>857</v>
@@ -11707,10 +12080,10 @@
         <v>16041</v>
       </c>
       <c r="B355" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C355" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D355">
         <v>240</v>
@@ -11721,10 +12094,10 @@
         <v>16072</v>
       </c>
       <c r="B356" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C356" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D356">
         <v>936</v>
@@ -11735,10 +12108,10 @@
         <v>16072</v>
       </c>
       <c r="B357" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C357" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D357">
         <v>250</v>
@@ -11749,10 +12122,10 @@
         <v>16103</v>
       </c>
       <c r="B358" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C358" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D358">
         <v>514</v>
@@ -11763,10 +12136,10 @@
         <v>16103</v>
       </c>
       <c r="B359" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C359" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D359">
         <v>282</v>
@@ -11777,10 +12150,10 @@
         <v>16132</v>
       </c>
       <c r="B360" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C360" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D360">
         <v>500</v>
@@ -11791,10 +12164,10 @@
         <v>16132</v>
       </c>
       <c r="B361" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C361" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D361">
         <v>308</v>
@@ -11805,10 +12178,10 @@
         <v>16132</v>
       </c>
       <c r="B362" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C362" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D362">
         <v>150</v>
@@ -11819,10 +12192,10 @@
         <v>16163</v>
       </c>
       <c r="B363" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C363" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D363">
         <v>938</v>
@@ -11833,10 +12206,10 @@
         <v>16163</v>
       </c>
       <c r="B364" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C364" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D364">
         <v>163</v>
@@ -11847,10 +12220,10 @@
         <v>16163</v>
       </c>
       <c r="B365" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C365" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D365">
         <v>166</v>
@@ -11861,10 +12234,10 @@
         <v>16193</v>
       </c>
       <c r="B366" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C366" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D366">
         <v>288</v>
@@ -11875,10 +12248,10 @@
         <v>16193</v>
       </c>
       <c r="B367" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C367" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D367">
         <v>253</v>
@@ -11889,10 +12262,10 @@
         <v>16224</v>
       </c>
       <c r="B368" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C368" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D368">
         <v>504</v>
@@ -11903,10 +12276,10 @@
         <v>16224</v>
       </c>
       <c r="B369" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C369" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D369">
         <v>239</v>
@@ -11917,10 +12290,10 @@
         <v>16254</v>
       </c>
       <c r="B370" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C370" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D370">
         <v>172</v>
@@ -11931,10 +12304,10 @@
         <v>16254</v>
       </c>
       <c r="B371" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C371" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D371">
         <v>173</v>
@@ -11945,10 +12318,10 @@
         <v>16285</v>
       </c>
       <c r="B372" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C372" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D372">
         <v>264</v>
@@ -11959,10 +12332,10 @@
         <v>16285</v>
       </c>
       <c r="B373" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C373" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D373">
         <v>24</v>

--- a/DepthCharges/AirborneDroppedMines.xlsx
+++ b/DepthCharges/AirborneDroppedMines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26505"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\DepthCharges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD548C4E-D9D1-4795-88F5-549DD297DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA12FA4-48DD-4192-B123-50EC35817E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-    <pivotCache cacheId="3" r:id="rId4"/>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -415,152 +415,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0A2FE024-92FE-43A0-9713-6851D4004EF1}"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -782,16 +642,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="Biegert Standard" table="0" count="4" xr9:uid="{7C354013-5777-434E-AE4C-CFEE7785F191}">
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="totalRow" dxfId="48"/>
-      <tableStyleElement type="firstColumn" dxfId="47"/>
-      <tableStyleElement type="firstRowStripe" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
     </tableStyle>
     <tableStyle name="Biegert Standard A" pivot="0" count="4" xr9:uid="{0F62376E-C7C2-4D0A-80AF-3486931EC7A3}">
-      <tableStyleElement type="headerRow" dxfId="45"/>
-      <tableStyleElement type="totalRow" dxfId="44"/>
-      <tableStyleElement type="firstColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
     </tableStyle>
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D5A5F521-9AF8-494D-A293-CE4730E89140}"/>
   </tableStyles>
@@ -804,6 +664,1214 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[AirborneDroppedMines.xlsx]Raw_Airborn!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Raw_Airborn!$U$62:$U$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Airborne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Raw_Airborn!$S$64:$T$70</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1945</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Raw_Airborn!$U$64:$U$70</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CB2-403E-B8A9-ED60DE0A3FA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Raw_Airborn!$V$62:$V$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUBMARINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Raw_Airborn!$S$64:$T$70</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1945</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Raw_Airborn!$V$64:$V$70</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CB2-403E-B8A9-ED60DE0A3FA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Raw_Airborn!$W$62:$W$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SURFACE CRAFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Raw_Airborn!$S$64:$T$70</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1945</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Raw_Airborn!$W$64:$W$70</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0CB2-403E-B8A9-ED60DE0A3FA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1375634672"/>
+        <c:axId val="1375631792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1375634672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1375631792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1375631792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1375634672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,6 +2018,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1103244</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>109330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16990C1A-1CBB-CE07-47B9-BA8D349A6FC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3561,7 +4665,406 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03D75A69-9385-4459-86C0-8514CBC7C464}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1D70F20-72AF-44B2-9D42-31DAC2A09F92}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="S62:X70" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1">
+      <items count="7">
+        <item x="0" e="0"/>
+        <item x="1" e="0"/>
+        <item x="2" e="0"/>
+        <item x="3" e="0"/>
+        <item x="4" e="0"/>
+        <item x="5" e="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="3" baseField="1" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="21">
+    <format dxfId="21">
+      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2" selected="0">
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="4" selected="0">
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2" selected="0">
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="21">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="11"/>
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="8"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Combined]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03D75A69-9385-4459-86C0-8514CBC7C464}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="T44:AA53" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1">
@@ -3697,369 +5200,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1D70F20-72AF-44B2-9D42-31DAC2A09F92}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="S62:X70" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1">
-      <items count="7">
-        <item x="0" e="0"/>
-        <item x="1" e="0"/>
-        <item x="2" e="0"/>
-        <item x="3" e="0"/>
-        <item x="4" e="0"/>
-        <item x="5" e="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Value" fld="3" baseField="1" baseItem="0" numFmtId="3"/>
-  </dataFields>
-  <formats count="21">
-    <format dxfId="41">
-      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="2" selected="0">
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="2" selected="0">
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea field="1" grandCol="1" outline="0" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="4" selected="0">
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="2" selected="0">
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea field="2" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotHierarchies count="21">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="11"/>
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="8"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Combined]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD6E8CFA-8D2D-4D79-BEAF-267C21F2A4AB}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD6E8CFA-8D2D-4D79-BEAF-267C21F2A4AB}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F1:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0">
@@ -4261,7 +5403,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394EF55B-5601-416F-89B0-8FC05269FBDE}" name="Table4" displayName="Table4" ref="A1:D373" totalsRowShown="0">
   <autoFilter ref="A1:D373" xr:uid="{394EF55B-5601-416F-89B0-8FC05269FBDE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E8AD9C6E-7FFA-4802-BD20-C77E40991A77}" name="Date" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{E8AD9C6E-7FFA-4802-BD20-C77E40991A77}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E64A40D9-8354-4A2B-AAE9-B4FAC7A5A3F8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{CB38B31A-A814-4CB4-B2D9-360A348E8533}" name="Mark"/>
     <tableColumn id="4" xr3:uid="{62CA5B75-415C-4054-BF6A-A5302E7218A9}" name="Value"/>
@@ -4594,12 +5736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="9924" ySplit="3960" topLeftCell="R62" activePane="bottomRight"/>
-      <selection activeCell="N34" sqref="N34"/>
-      <selection pane="topRight" activeCell="X52" sqref="X52"/>
-      <selection pane="bottomLeft" activeCell="O64" sqref="O64"/>
-      <selection pane="bottomRight" activeCell="R67" sqref="R67"/>
+    <sheetView tabSelected="1" topLeftCell="P67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
